--- a/TestData_Repository/TestData.xlsx
+++ b/TestData_Repository/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="664">
   <si>
     <t>7616515TQ</t>
   </si>
@@ -1909,6 +1909,108 @@
   </si>
   <si>
     <t>qlx7024u@hotmail.com</t>
+  </si>
+  <si>
+    <t>3717170JU</t>
+  </si>
+  <si>
+    <t>n3f5f2dp@hotmail.com</t>
+  </si>
+  <si>
+    <t>7410748VL</t>
+  </si>
+  <si>
+    <t>r18wvs0o@hotmail.com</t>
+  </si>
+  <si>
+    <t>8321043YJ</t>
+  </si>
+  <si>
+    <t>e919iny9@hotmail.com</t>
+  </si>
+  <si>
+    <t>0453228CM</t>
+  </si>
+  <si>
+    <t>dsuokk99@hotmail.com</t>
+  </si>
+  <si>
+    <t>6516713SQ</t>
+  </si>
+  <si>
+    <t>6jxtabx4@hotmail.com</t>
+  </si>
+  <si>
+    <t>3434755IM</t>
+  </si>
+  <si>
+    <t>mspq2uxt@hotmail.com</t>
+  </si>
+  <si>
+    <t>4538473NP</t>
+  </si>
+  <si>
+    <t>tvn6r5nu@hotmail.com</t>
+  </si>
+  <si>
+    <t>2218587GH</t>
+  </si>
+  <si>
+    <t>ikg6v75c@hotmail.com</t>
+  </si>
+  <si>
+    <t>8401321YN</t>
+  </si>
+  <si>
+    <t>v452elbb@hotmail.com</t>
+  </si>
+  <si>
+    <t>5530257PQ</t>
+  </si>
+  <si>
+    <t>wxmaju3k@hotmail.com</t>
+  </si>
+  <si>
+    <t>4742405mv</t>
+  </si>
+  <si>
+    <t>s5qjrawy@hotmail.com</t>
+  </si>
+  <si>
+    <t>2186845gf</t>
+  </si>
+  <si>
+    <t>o2pshm5u@hotmail.com</t>
+  </si>
+  <si>
+    <t>7185388vd</t>
+  </si>
+  <si>
+    <t>4f9vm964@hotmail.com</t>
+  </si>
+  <si>
+    <t>0136522bf</t>
+  </si>
+  <si>
+    <t>i38u5evj@hotmail.com</t>
+  </si>
+  <si>
+    <t>2511750go</t>
+  </si>
+  <si>
+    <t>jugf2xax@hotmail.com</t>
+  </si>
+  <si>
+    <t>3531388ko</t>
+  </si>
+  <si>
+    <t>b5hzh728@hotmail.com</t>
+  </si>
+  <si>
+    <t>1355752dj</t>
+  </si>
+  <si>
+    <t>fnvx4vl1@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -2244,7 +2346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B334"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
       <selection activeCell="B264" sqref="B264"/>
@@ -4788,6 +4890,142 @@
         <v>629</v>
       </c>
     </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>630</v>
+      </c>
+      <c r="B318" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>632</v>
+      </c>
+      <c r="B319" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>634</v>
+      </c>
+      <c r="B320" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>636</v>
+      </c>
+      <c r="B321" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>638</v>
+      </c>
+      <c r="B322" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>640</v>
+      </c>
+      <c r="B323" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>642</v>
+      </c>
+      <c r="B324" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>644</v>
+      </c>
+      <c r="B325" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>646</v>
+      </c>
+      <c r="B326" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>648</v>
+      </c>
+      <c r="B327" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>650</v>
+      </c>
+      <c r="B328" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>652</v>
+      </c>
+      <c r="B329" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>654</v>
+      </c>
+      <c r="B330" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>656</v>
+      </c>
+      <c r="B331" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>658</v>
+      </c>
+      <c r="B332" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>660</v>
+      </c>
+      <c r="B333" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>662</v>
+      </c>
+      <c r="B334" t="s">
+        <v>663</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1"/>
